--- a/archive/테이블 내용 분석.xlsx
+++ b/archive/테이블 내용 분석.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkh91\DOCUME~1\카카오~1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\python-workspace\project\Brazilian_region\archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9E63AC-8E30-49EC-838B-578054A14A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA2C569-B9E8-4C76-B52A-EF124FC2774A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1785" windowWidth="18900" windowHeight="11430" activeTab="1" xr2:uid="{CAC23EC8-D424-486C-A35F-FA82082F0319}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CAC23EC8-D424-486C-A35F-FA82082F0319}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -228,10 +227,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>상품이 가볍거나무겁거나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>seller_zip_code_prefix</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -260,10 +255,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>olist_products_dataset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">sample </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -273,6 +264,14 @@
   </si>
   <si>
     <t>olist_order_payments_dataset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>olist_products_dataset2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>↓민우씨데이터로 리로드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -280,7 +279,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,8 +310,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -351,13 +358,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,9 +420,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -431,7 +429,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -449,229 +450,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>185057</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>130629</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27BDF098-69EF-4A61-B040-FDB3B94321A5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect l="20794" t="35782" r="13856" b="15685"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="304800" y="0"/>
-          <a:ext cx="12028714" cy="4920343"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>424542</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>76202</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>206829</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>152402</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="직사각형 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FE97CBC-C68F-40C8-BCBF-587D4B32BF57}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6498771" y="2688773"/>
-          <a:ext cx="5856515" cy="1600200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>239484</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>478972</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>97972</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1197164F-80DC-45C8-B041-2E6A408FE7DF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect l="19883" t="34290" r="12370" b="15439"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="239484" y="5377542"/>
-          <a:ext cx="12387945" cy="5170716"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>468086</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>130629</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>250373</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="직사각형 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DED8050E-BB41-47A6-A430-403975B458FE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6542315" y="6662058"/>
-          <a:ext cx="5856515" cy="576942"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -971,267 +749,269 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9289CF73-5C91-4C0E-B968-B70015503968}">
-  <dimension ref="B3:L31"/>
+  <dimension ref="B2:L31"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="10"/>
-    <col min="2" max="2" width="26.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5" style="10" customWidth="1"/>
-    <col min="4" max="4" width="8.75" style="10"/>
-    <col min="5" max="5" width="30.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.75" style="10"/>
-    <col min="8" max="8" width="26.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.75" style="10"/>
-    <col min="11" max="11" width="27.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="35.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.75" style="10"/>
+    <col min="1" max="1" width="8.69921875" style="9"/>
+    <col min="2" max="2" width="26.69921875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5" style="9" customWidth="1"/>
+    <col min="4" max="4" width="8.69921875" style="9"/>
+    <col min="5" max="5" width="30.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.69921875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.69921875" style="9"/>
+    <col min="8" max="8" width="26.69921875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.69921875" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.69921875" style="9"/>
+    <col min="11" max="11" width="27.3984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.69921875" style="9"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="H3" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="H2" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="H3" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
       <c r="H4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="K4" s="13"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E5" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F5" s="10" t="s">
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="E5" s="9" t="s">
         <v>72</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E6" s="9" t="s">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="E6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="9">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E7" s="9" t="s">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="E7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="9">
         <v>1</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="9">
         <v>287</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E8" s="9" t="s">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="E8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E9" s="9" t="s">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="E9" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <v>8</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="9">
         <v>225</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E10" s="9" t="s">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="E10" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="9">
         <v>99.33</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="9">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
       <c r="H11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
       <c r="H12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="9">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="10" t="s">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B15" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H15" s="10" t="s">
+      <c r="E15" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="K15" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="9" t="s">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B16" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="9" t="s">
         <v>43</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="I16" s="9" t="s">
         <v>21</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="L16" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="L16" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>38</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="9" t="s">
         <v>44</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="9">
         <v>1</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="L17" s="10">
+        <v>63</v>
+      </c>
+      <c r="L17" s="9">
         <v>13023</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="9">
         <v>4</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="11" t="s">
         <v>45</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I18" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="K18" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="L18" s="10" t="s">
+      <c r="L18" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="9" t="s">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B19" s="12" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F19" s="7">
         <v>43010.455937500003</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I19" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K19" s="9" t="s">
+      <c r="K19" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="L19" s="10" t="s">
+      <c r="L19" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F20" s="7">
         <v>43010.463368055556</v>
@@ -1243,8 +1023,8 @@
         <v>42997.406655092593</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="9" t="s">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B21" s="12" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="7">
@@ -1259,12 +1039,12 @@
       <c r="H21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I21" s="9">
         <v>58.9</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B22" s="9" t="s">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B22" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="7">
@@ -1277,97 +1057,97 @@
         <v>43018.892511574071</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I22" s="10">
+        <v>71</v>
+      </c>
+      <c r="I22" s="9">
         <v>13.29</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E23" s="9" t="s">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="E23" s="12" t="s">
         <v>42</v>
       </c>
       <c r="F23" s="7">
         <v>43026</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="K25" s="10" t="s">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="K25" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E26" s="10" t="s">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="E26" s="9" t="s">
         <v>0</v>
       </c>
       <c r="K26" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L26" s="10">
+      <c r="L26" s="9">
         <v>1037</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.4">
       <c r="E27" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="9" t="s">
         <v>5</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L27" s="10">
+      <c r="L27" s="9">
         <v>-23.545621281152599</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E28" s="9" t="s">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="E28" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="9" t="s">
         <v>6</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L28" s="10">
+      <c r="L28" s="9">
         <v>-46.6392920480016</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.4">
       <c r="E29" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F29" s="11">
+        <v>65</v>
+      </c>
+      <c r="F29" s="10">
         <v>14409</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L29" s="10" t="s">
+      <c r="L29" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E30" s="9" t="s">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="E30" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="9" t="s">
         <v>7</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L30" s="10" t="s">
+      <c r="L30" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E31" s="9" t="s">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="E31" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F31" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1376,26 +1156,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7125E4E-D65A-4DA2-B981-C55C419302E7}">
-  <dimension ref="T15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="15" spans="20:20" x14ac:dyDescent="0.3">
-      <c r="T15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/archive/테이블 내용 분석.xlsx
+++ b/archive/테이블 내용 분석.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\python-workspace\project\Brazilian_region\archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA2C569-B9E8-4C76-B52A-EF124FC2774A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8C69F9-5339-4083-B288-B5A9121BB7E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CAC23EC8-D424-486C-A35F-FA82082F0319}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="칼럼삭제파일출력하기" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,18 +35,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="89">
   <si>
     <t>olist_customers_dataset</t>
   </si>
   <si>
     <t>customer_id</t>
-  </si>
-  <si>
-    <t>customer_city</t>
-  </si>
-  <si>
-    <t>customer_state</t>
   </si>
   <si>
     <t>olist_geolocation_dataset</t>
@@ -272,6 +267,86 @@
   </si>
   <si>
     <t>↓민우씨데이터로 리로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer_city</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer_state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 칼럼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제칼럼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>↓</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>복사</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제할 칼럼에 X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>products_dataset2</t>
+  </si>
+  <si>
+    <t>'product_name_lenght','product_description_lenght','product_photos_qty','product_weight_g','product_length_cm','product_height_cm','product_width_cm'</t>
+  </si>
+  <si>
+    <t>geolocation_zip_code_prefix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(No)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'product_id','product_name_lenght','product_description_lenght','product_photos_qty','product_weight_g','product_length_cm','product_height_cm','product_width_cm','product_category_name_english'</t>
+  </si>
+  <si>
+    <t>olist_geolocation_dataset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -279,7 +354,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,8 +393,37 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -362,8 +466,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -386,13 +496,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -433,6 +580,36 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -772,186 +949,218 @@
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.4">
       <c r="H2" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.4">
       <c r="H3" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.4">
       <c r="H4" s="1" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.4">
       <c r="E5" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.4">
       <c r="E6" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I6" s="9">
         <v>40</v>
       </c>
+      <c r="K6" s="9" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.4">
       <c r="E7" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F7" s="9">
         <v>1</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I7" s="9">
         <v>287</v>
       </c>
+      <c r="K7" s="9" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.4">
       <c r="E8" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I8" s="9">
         <v>1</v>
       </c>
+      <c r="K8" s="9" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.4">
       <c r="E9" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F9" s="9">
         <v>8</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I9" s="9">
         <v>225</v>
       </c>
+      <c r="K9" s="9" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.4">
       <c r="E10" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F10" s="9">
         <v>99.33</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I10" s="9">
         <v>16</v>
       </c>
+      <c r="K10" s="9" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.4">
       <c r="H11" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I11" s="9">
         <v>10</v>
       </c>
+      <c r="K11" s="9" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.4">
       <c r="H12" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I12" s="9">
         <v>14</v>
       </c>
+      <c r="K12" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="K13" s="9" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B15" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B16" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I17" s="9">
         <v>1</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L17" s="9">
         <v>13023</v>
@@ -959,65 +1168,65 @@
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B18" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C18" s="9">
         <v>4</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B19" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F19" s="7">
         <v>43010.455937500003</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F20" s="7">
         <v>43010.463368055556</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I20" s="7">
         <v>42997.406655092593</v>
@@ -1025,19 +1234,19 @@
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B21" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C21" s="7">
         <v>43118</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F21" s="7">
         <v>43012.829861111109</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9">
         <v>58.9</v>
@@ -1045,19 +1254,19 @@
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B22" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C22" s="7">
         <v>43118.907627314817</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F22" s="7">
         <v>43018.892511574071</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9">
         <v>13.29</v>
@@ -1065,7 +1274,7 @@
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.4">
       <c r="E23" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F23" s="7">
         <v>43026</v>
@@ -1073,7 +1282,7 @@
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.4">
       <c r="K25" s="9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.4">
@@ -1081,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L26" s="9">
         <v>1037</v>
@@ -1089,13 +1298,13 @@
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.4">
       <c r="E27" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L27" s="9">
         <v>-23.545621281152599</v>
@@ -1103,13 +1312,13 @@
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.4">
       <c r="E28" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L28" s="9">
         <v>-46.6392920480016</v>
@@ -1117,39 +1326,1360 @@
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.4">
       <c r="E29" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F29" s="10">
         <v>14409</v>
       </c>
       <c r="K29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L29" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="L29" s="9" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.4">
       <c r="E30" s="12" t="s">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.4">
       <c r="E31" s="12" t="s">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="F31" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2542595D-13B2-4BFD-ABF6-12085080FD5C}">
+  <dimension ref="B2:Z70"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="18" max="18" width="29" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.3984375" customWidth="1"/>
+    <col min="23" max="23" width="16.3984375" customWidth="1"/>
+    <col min="25" max="26" width="8.796875" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B2" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="19"/>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B3" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="19"/>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B4" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="19"/>
+      <c r="T4" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="V4" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="X4" s="20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24" ht="18" x14ac:dyDescent="0.4">
+      <c r="T5" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="V5" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="X5" s="21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B6" t="str">
+        <f>"delete_"&amp;C2&amp;" = "&amp;C2&amp;".loc[:,["&amp;C3&amp;"]]"</f>
+        <v>delete_products_dataset2 = products_dataset2.loc[:,['product_id','product_name_lenght','product_description_lenght','product_photos_qty','product_weight_g','product_length_cm','product_height_cm','product_width_cm','product_category_name_english']]</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="S6" t="s">
+        <v>80</v>
+      </c>
+      <c r="T6" t="str">
+        <f>RIGHT(Q6,LEN(Q6)-6)</f>
+        <v>customers_dataset</v>
+      </c>
+      <c r="V6" t="str">
+        <f>LEFT(V7,LEN(V7)-1)</f>
+        <v>'customer_id','customer_unique_id','customer_zip_code_prefix','customer_city','customer_state'</v>
+      </c>
+      <c r="X6" t="str">
+        <f>LEFT(X7,LEN(X7)-1)</f>
+        <v>'customer_unique_id','customer_city','customer_state'</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B7" t="str">
+        <f>"delete_"&amp;C2&amp;"1=delete_"&amp;C2&amp;".drop(["&amp;C4&amp;"],axis='columns')"</f>
+        <v>delete_products_dataset21=delete_products_dataset2.drop(['product_name_lenght','product_description_lenght','product_photos_qty','product_weight_g','product_length_cm','product_height_cm','product_width_cm'],axis='columns')</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="T7" s="17" t="str">
+        <f>IF(S7="X","'"&amp;R7&amp;"',","")</f>
+        <v/>
+      </c>
+      <c r="U7" s="17" t="str">
+        <f>"'"&amp;R7&amp;"',"</f>
+        <v>'customer_id',</v>
+      </c>
+      <c r="V7" s="17" t="str">
+        <f>U7&amp;U8&amp;U9&amp;U10&amp;U11</f>
+        <v>'customer_id','customer_unique_id','customer_zip_code_prefix','customer_city','customer_state',</v>
+      </c>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17" t="str">
+        <f>T7&amp;T8&amp;T9&amp;T10&amp;T11</f>
+        <v>'customer_unique_id','customer_city','customer_state',</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="R8" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="S8" t="s">
+        <v>79</v>
+      </c>
+      <c r="T8" s="17" t="str">
+        <f>IF(S8="X","'"&amp;R8&amp;"',","")</f>
+        <v>'customer_unique_id',</v>
+      </c>
+      <c r="U8" s="17" t="str">
+        <f t="shared" ref="U8:U11" si="0">"'"&amp;R8&amp;"',"</f>
+        <v>'customer_unique_id',</v>
+      </c>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B9" t="str">
+        <f>"delete_"&amp;C2&amp;"1.to_csv('delete_"&amp;C2&amp;"1.csv',index=None)"</f>
+        <v>delete_products_dataset21.to_csv('delete_products_dataset21.csv',index=None)</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T9" s="17" t="str">
+        <f>IF(S9="X","'"&amp;R9&amp;"',","")</f>
+        <v/>
+      </c>
+      <c r="U9" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>'customer_zip_code_prefix',</v>
+      </c>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="R10" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="S10" t="s">
+        <v>79</v>
+      </c>
+      <c r="T10" s="17" t="str">
+        <f>IF(S10="X","'"&amp;R10&amp;"',","")</f>
+        <v>'customer_city',</v>
+      </c>
+      <c r="U10" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>'customer_city',</v>
+      </c>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="R11" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="S11" t="s">
+        <v>79</v>
+      </c>
+      <c r="T11" s="17" t="str">
+        <f>IF(S11="X","'"&amp;R11&amp;"',","")</f>
+        <v>'customer_state',</v>
+      </c>
+      <c r="U11" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>'customer_state',</v>
+      </c>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+    </row>
+    <row r="12" spans="2:24" ht="18" x14ac:dyDescent="0.4">
+      <c r="T12" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="V12" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="X12" s="21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="Q13" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="T13" t="str">
+        <f>RIGHT(Q13,LEN(Q13)-6)</f>
+        <v>orders_dataset</v>
+      </c>
+      <c r="V13" t="str">
+        <f>LEFT(V14,LEN(V14)-1)</f>
+        <v>'order_id','customer_id','order_status','order_purchase_timestamp','order_approved_at','order_delivered_carrier_date','order_delivered_customer_date','order_estimated_delivery_date'</v>
+      </c>
+      <c r="X13" t="str">
+        <f>LEFT(X14,LEN(X14)-1)</f>
+        <v>'order_status','order_estimated_delivery_date'</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="Q14" s="9"/>
+      <c r="R14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T14" s="17" t="str">
+        <f>IF(S14="X","'"&amp;R14&amp;"',","")</f>
+        <v/>
+      </c>
+      <c r="U14" s="17" t="str">
+        <f>"'"&amp;R14&amp;"',"</f>
+        <v>'order_id',</v>
+      </c>
+      <c r="V14" s="17" t="str">
+        <f>U14&amp;U15&amp;U16&amp;U17&amp;U18&amp;U19&amp;U20&amp;U21</f>
+        <v>'order_id','customer_id','order_status','order_purchase_timestamp','order_approved_at','order_delivered_carrier_date','order_delivered_customer_date','order_estimated_delivery_date',</v>
+      </c>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17" t="str">
+        <f>T14&amp;T15&amp;T16&amp;T17&amp;T18&amp;T19&amp;T20&amp;T21</f>
+        <v>'order_status','order_estimated_delivery_date',</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="Q15" s="9"/>
+      <c r="R15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="T15" s="17" t="str">
+        <f>IF(S15="X","'"&amp;R15&amp;"',","")</f>
+        <v/>
+      </c>
+      <c r="U15" s="17" t="str">
+        <f>"'"&amp;R15&amp;"',"</f>
+        <v>'customer_id',</v>
+      </c>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="Q16" s="9"/>
+      <c r="R16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S16" t="s">
+        <v>79</v>
+      </c>
+      <c r="T16" s="17" t="str">
+        <f>IF(S16="X","'"&amp;R16&amp;"',","")</f>
+        <v>'order_status',</v>
+      </c>
+      <c r="U16" s="17" t="str">
+        <f>"'"&amp;R16&amp;"',"</f>
+        <v>'order_status',</v>
+      </c>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+    </row>
+    <row r="17" spans="17:25" x14ac:dyDescent="0.4">
+      <c r="Q17" s="9"/>
+      <c r="R17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="T17" s="17" t="str">
+        <f>IF(S17="X","'"&amp;R17&amp;"',","")</f>
+        <v/>
+      </c>
+      <c r="U17" s="17" t="str">
+        <f>"'"&amp;R17&amp;"',"</f>
+        <v>'order_purchase_timestamp',</v>
+      </c>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+    </row>
+    <row r="18" spans="17:25" x14ac:dyDescent="0.4">
+      <c r="Q18" s="9"/>
+      <c r="R18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="T18" s="17" t="str">
+        <f>IF(S18="X","'"&amp;R18&amp;"',","")</f>
+        <v/>
+      </c>
+      <c r="U18" s="17" t="str">
+        <f>"'"&amp;R18&amp;"',"</f>
+        <v>'order_approved_at',</v>
+      </c>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+    </row>
+    <row r="19" spans="17:25" x14ac:dyDescent="0.4">
+      <c r="Q19" s="9"/>
+      <c r="R19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T19" s="17" t="str">
+        <f t="shared" ref="T19:T21" si="1">IF(S19="X","'"&amp;R19&amp;"',","")</f>
+        <v/>
+      </c>
+      <c r="U19" s="17" t="str">
+        <f>"'"&amp;R19&amp;"',"</f>
+        <v>'order_delivered_carrier_date',</v>
+      </c>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="22"/>
+    </row>
+    <row r="20" spans="17:25" x14ac:dyDescent="0.4">
+      <c r="Q20" s="9"/>
+      <c r="R20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T20" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U20" s="17" t="str">
+        <f>"'"&amp;R20&amp;"',"</f>
+        <v>'order_delivered_customer_date',</v>
+      </c>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="22"/>
+    </row>
+    <row r="21" spans="17:25" x14ac:dyDescent="0.4">
+      <c r="Q21" s="9"/>
+      <c r="R21" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="S21" t="s">
+        <v>79</v>
+      </c>
+      <c r="T21" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>'order_estimated_delivery_date',</v>
+      </c>
+      <c r="U21" s="17" t="str">
+        <f>"'"&amp;R21&amp;"',"</f>
+        <v>'order_estimated_delivery_date',</v>
+      </c>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="22"/>
+    </row>
+    <row r="22" spans="17:25" ht="18" x14ac:dyDescent="0.4">
+      <c r="Q22" s="9"/>
+      <c r="R22" s="15"/>
+      <c r="T22" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="V22" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="X22" s="21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="17:25" x14ac:dyDescent="0.4">
+      <c r="Q23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="R23" s="14"/>
+      <c r="T23" t="str">
+        <f>RIGHT(Q23,LEN(Q23)-6)</f>
+        <v>order_items_dataset</v>
+      </c>
+      <c r="V23" t="str">
+        <f>LEFT(V24,LEN(V24)-1)</f>
+        <v>'order_id','order_item_id','product_id','seller_id','shipping_limit_date','price','freight_value'</v>
+      </c>
+      <c r="X23" t="str">
+        <f>LEFT(X24,LEN(X24)-1)</f>
+        <v>'order_item_id','shipping_limit_date','price','freight_value'</v>
+      </c>
+    </row>
+    <row r="24" spans="17:25" x14ac:dyDescent="0.4">
+      <c r="Q24" s="9"/>
+      <c r="R24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T24" s="17" t="str">
+        <f>IF(S24="X","'"&amp;R24&amp;"',","")</f>
+        <v/>
+      </c>
+      <c r="U24" s="17" t="str">
+        <f>"'"&amp;R24&amp;"',"</f>
+        <v>'order_id',</v>
+      </c>
+      <c r="V24" s="17" t="str">
+        <f>U24&amp;U25&amp;U26&amp;U27&amp;U28&amp;U29&amp;U30</f>
+        <v>'order_id','order_item_id','product_id','seller_id','shipping_limit_date','price','freight_value',</v>
+      </c>
+      <c r="W24" s="17"/>
+      <c r="X24" s="17" t="str">
+        <f>T24&amp;T25&amp;T26&amp;T27&amp;T28&amp;T29&amp;T30</f>
+        <v>'order_item_id','shipping_limit_date','price','freight_value',</v>
+      </c>
+    </row>
+    <row r="25" spans="17:25" x14ac:dyDescent="0.4">
+      <c r="Q25" s="9"/>
+      <c r="R25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S25" t="s">
+        <v>79</v>
+      </c>
+      <c r="T25" s="17" t="str">
+        <f>IF(S25="X","'"&amp;R25&amp;"',","")</f>
+        <v>'order_item_id',</v>
+      </c>
+      <c r="U25" s="17" t="str">
+        <f>"'"&amp;R25&amp;"',"</f>
+        <v>'order_item_id',</v>
+      </c>
+      <c r="V25" s="17"/>
+      <c r="W25" s="17"/>
+      <c r="X25" s="17"/>
+    </row>
+    <row r="26" spans="17:25" x14ac:dyDescent="0.4">
+      <c r="Q26" s="9"/>
+      <c r="R26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="T26" s="17" t="str">
+        <f>IF(S26="X","'"&amp;R26&amp;"',","")</f>
+        <v/>
+      </c>
+      <c r="U26" s="17" t="str">
+        <f>"'"&amp;R26&amp;"',"</f>
+        <v>'product_id',</v>
+      </c>
+      <c r="V26" s="17"/>
+      <c r="W26" s="17"/>
+      <c r="X26" s="17"/>
+    </row>
+    <row r="27" spans="17:25" x14ac:dyDescent="0.4">
+      <c r="Q27" s="9"/>
+      <c r="R27" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="T27" s="17" t="str">
+        <f>IF(S27="X","'"&amp;R27&amp;"',","")</f>
+        <v/>
+      </c>
+      <c r="U27" s="17" t="str">
+        <f>"'"&amp;R27&amp;"',"</f>
+        <v>'seller_id',</v>
+      </c>
+      <c r="V27" s="17"/>
+      <c r="W27" s="17"/>
+      <c r="X27" s="17"/>
+    </row>
+    <row r="28" spans="17:25" x14ac:dyDescent="0.4">
+      <c r="Q28" s="9"/>
+      <c r="R28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S28" t="s">
+        <v>79</v>
+      </c>
+      <c r="T28" s="17" t="str">
+        <f>IF(S28="X","'"&amp;R28&amp;"',","")</f>
+        <v>'shipping_limit_date',</v>
+      </c>
+      <c r="U28" s="17" t="str">
+        <f>"'"&amp;R28&amp;"',"</f>
+        <v>'shipping_limit_date',</v>
+      </c>
+      <c r="V28" s="17"/>
+      <c r="W28" s="17"/>
+      <c r="X28" s="17"/>
+    </row>
+    <row r="29" spans="17:25" x14ac:dyDescent="0.4">
+      <c r="Q29" s="9"/>
+      <c r="R29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S29" t="s">
+        <v>79</v>
+      </c>
+      <c r="T29" s="17" t="str">
+        <f t="shared" ref="T29:T30" si="2">IF(S29="X","'"&amp;R29&amp;"',","")</f>
+        <v>'price',</v>
+      </c>
+      <c r="U29" s="17" t="str">
+        <f>"'"&amp;R29&amp;"',"</f>
+        <v>'price',</v>
+      </c>
+      <c r="V29" s="17"/>
+      <c r="W29" s="17"/>
+      <c r="X29" s="17"/>
+    </row>
+    <row r="30" spans="17:25" x14ac:dyDescent="0.4">
+      <c r="Q30" s="9"/>
+      <c r="R30" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="S30" t="s">
+        <v>79</v>
+      </c>
+      <c r="T30" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>'freight_value',</v>
+      </c>
+      <c r="U30" s="17" t="str">
+        <f>"'"&amp;R30&amp;"',"</f>
+        <v>'freight_value',</v>
+      </c>
+      <c r="V30" s="17"/>
+      <c r="W30" s="17"/>
+      <c r="X30" s="17"/>
+    </row>
+    <row r="31" spans="17:25" ht="18" x14ac:dyDescent="0.4">
+      <c r="Q31" s="9"/>
+      <c r="R31" s="16"/>
+      <c r="T31" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="V31" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="X31" s="21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="17:25" x14ac:dyDescent="0.4">
+      <c r="Q32" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="T32" t="str">
+        <f>RIGHT(Q32,LEN(Q32)-6)</f>
+        <v>products_dataset2</v>
+      </c>
+      <c r="V32" t="str">
+        <f>LEFT(V33,LEN(V33)-1)</f>
+        <v>'product_id','product_name_lenght','product_description_lenght','product_photos_qty','product_weight_g','product_length_cm','product_height_cm','product_width_cm','product_category_name_english'</v>
+      </c>
+      <c r="X32" t="str">
+        <f>LEFT(X33,LEN(X33)-1)</f>
+        <v>'product_name_lenght','product_description_lenght','product_photos_qty','product_weight_g','product_length_cm','product_height_cm','product_width_cm'</v>
+      </c>
+    </row>
+    <row r="33" spans="17:24" x14ac:dyDescent="0.4">
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="T33" s="17" t="str">
+        <f>IF(S33="X","'"&amp;R33&amp;"',","")</f>
+        <v/>
+      </c>
+      <c r="U33" s="17" t="str">
+        <f>"'"&amp;R33&amp;"',"</f>
+        <v>'product_id',</v>
+      </c>
+      <c r="V33" s="17" t="str">
+        <f>U33&amp;U34&amp;U35&amp;U36&amp;U37&amp;U38&amp;U39&amp;U40&amp;U41</f>
+        <v>'product_id','product_name_lenght','product_description_lenght','product_photos_qty','product_weight_g','product_length_cm','product_height_cm','product_width_cm','product_category_name_english',</v>
+      </c>
+      <c r="W33" s="17"/>
+      <c r="X33" s="17" t="str">
+        <f>T33&amp;T34&amp;T35&amp;T36&amp;T37&amp;T38&amp;T39&amp;T40&amp;T41</f>
+        <v>'product_name_lenght','product_description_lenght','product_photos_qty','product_weight_g','product_length_cm','product_height_cm','product_width_cm',</v>
+      </c>
+    </row>
+    <row r="34" spans="17:24" x14ac:dyDescent="0.4">
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="S34" t="s">
+        <v>79</v>
+      </c>
+      <c r="T34" s="17" t="str">
+        <f>IF(S34="X","'"&amp;R34&amp;"',","")</f>
+        <v>'product_name_lenght',</v>
+      </c>
+      <c r="U34" s="17" t="str">
+        <f>"'"&amp;R34&amp;"',"</f>
+        <v>'product_name_lenght',</v>
+      </c>
+      <c r="V34" s="17"/>
+      <c r="W34" s="17"/>
+      <c r="X34" s="17"/>
+    </row>
+    <row r="35" spans="17:24" x14ac:dyDescent="0.4">
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="S35" t="s">
+        <v>79</v>
+      </c>
+      <c r="T35" s="17" t="str">
+        <f>IF(S35="X","'"&amp;R35&amp;"',","")</f>
+        <v>'product_description_lenght',</v>
+      </c>
+      <c r="U35" s="17" t="str">
+        <f>"'"&amp;R35&amp;"',"</f>
+        <v>'product_description_lenght',</v>
+      </c>
+      <c r="V35" s="17"/>
+      <c r="W35" s="17"/>
+      <c r="X35" s="17"/>
+    </row>
+    <row r="36" spans="17:24" x14ac:dyDescent="0.4">
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="S36" t="s">
+        <v>79</v>
+      </c>
+      <c r="T36" s="17" t="str">
+        <f>IF(S36="X","'"&amp;R36&amp;"',","")</f>
+        <v>'product_photos_qty',</v>
+      </c>
+      <c r="U36" s="17" t="str">
+        <f>"'"&amp;R36&amp;"',"</f>
+        <v>'product_photos_qty',</v>
+      </c>
+      <c r="V36" s="17"/>
+      <c r="W36" s="17"/>
+      <c r="X36" s="17"/>
+    </row>
+    <row r="37" spans="17:24" x14ac:dyDescent="0.4">
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="S37" t="s">
+        <v>79</v>
+      </c>
+      <c r="T37" s="17" t="str">
+        <f>IF(S37="X","'"&amp;R37&amp;"',","")</f>
+        <v>'product_weight_g',</v>
+      </c>
+      <c r="U37" s="17" t="str">
+        <f>"'"&amp;R37&amp;"',"</f>
+        <v>'product_weight_g',</v>
+      </c>
+      <c r="V37" s="17"/>
+      <c r="W37" s="17"/>
+      <c r="X37" s="17"/>
+    </row>
+    <row r="38" spans="17:24" x14ac:dyDescent="0.4">
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="S38" t="s">
+        <v>79</v>
+      </c>
+      <c r="T38" s="17" t="str">
+        <f t="shared" ref="T38:T41" si="3">IF(S38="X","'"&amp;R38&amp;"',","")</f>
+        <v>'product_length_cm',</v>
+      </c>
+      <c r="U38" s="17" t="str">
+        <f>"'"&amp;R38&amp;"',"</f>
+        <v>'product_length_cm',</v>
+      </c>
+      <c r="V38" s="17"/>
+      <c r="W38" s="17"/>
+      <c r="X38" s="17"/>
+    </row>
+    <row r="39" spans="17:24" x14ac:dyDescent="0.4">
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="S39" t="s">
+        <v>79</v>
+      </c>
+      <c r="T39" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>'product_height_cm',</v>
+      </c>
+      <c r="U39" s="17" t="str">
+        <f>"'"&amp;R39&amp;"',"</f>
+        <v>'product_height_cm',</v>
+      </c>
+      <c r="V39" s="17"/>
+      <c r="W39" s="17"/>
+      <c r="X39" s="17"/>
+    </row>
+    <row r="40" spans="17:24" x14ac:dyDescent="0.4">
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="S40" t="s">
+        <v>79</v>
+      </c>
+      <c r="T40" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>'product_width_cm',</v>
+      </c>
+      <c r="U40" s="17" t="str">
+        <f>"'"&amp;R40&amp;"',"</f>
+        <v>'product_width_cm',</v>
+      </c>
+      <c r="V40" s="17"/>
+      <c r="W40" s="17"/>
+      <c r="X40" s="17"/>
+    </row>
+    <row r="41" spans="17:24" x14ac:dyDescent="0.4">
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="T41" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="U41" s="17" t="str">
+        <f>"'"&amp;R41&amp;"',"</f>
+        <v>'product_category_name_english',</v>
+      </c>
+      <c r="V41" s="17"/>
+      <c r="W41" s="17"/>
+      <c r="X41" s="17"/>
+    </row>
+    <row r="42" spans="17:24" ht="18" x14ac:dyDescent="0.4">
+      <c r="Q42" s="9"/>
+      <c r="T42" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="V42" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="X42" s="21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="17:24" x14ac:dyDescent="0.4">
+      <c r="Q43" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="T43" t="str">
+        <f>RIGHT(Q43,LEN(Q43)-6)</f>
+        <v>sellers_dataset</v>
+      </c>
+      <c r="V43" t="str">
+        <f>LEFT(V44,LEN(V44)-1)</f>
+        <v>'seller_id','seller_zip_code_prefix','seller_city','seller_state'</v>
+      </c>
+      <c r="X43" t="str">
+        <f>LEFT(X44,LEN(X44)-1)</f>
+        <v>'seller_city','seller_state'</v>
+      </c>
+    </row>
+    <row r="44" spans="17:24" x14ac:dyDescent="0.4">
+      <c r="Q44" s="9"/>
+      <c r="R44" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="T44" s="17" t="str">
+        <f>IF(S44="X","'"&amp;R44&amp;"',","")</f>
+        <v/>
+      </c>
+      <c r="U44" s="17" t="str">
+        <f>"'"&amp;R44&amp;"',"</f>
+        <v>'seller_id',</v>
+      </c>
+      <c r="V44" s="17" t="str">
+        <f>U44&amp;U45&amp;U46&amp;U47</f>
+        <v>'seller_id','seller_zip_code_prefix','seller_city','seller_state',</v>
+      </c>
+      <c r="W44" s="17"/>
+      <c r="X44" s="17" t="str">
+        <f>T44&amp;T45&amp;T46&amp;T47</f>
+        <v>'seller_city','seller_state',</v>
+      </c>
+    </row>
+    <row r="45" spans="17:24" x14ac:dyDescent="0.4">
+      <c r="Q45" s="9"/>
+      <c r="R45" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="T45" s="17" t="str">
+        <f>IF(S45="X","'"&amp;R45&amp;"',","")</f>
+        <v/>
+      </c>
+      <c r="U45" s="17" t="str">
+        <f>"'"&amp;R45&amp;"',"</f>
+        <v>'seller_zip_code_prefix',</v>
+      </c>
+      <c r="V45" s="17"/>
+      <c r="W45" s="17"/>
+      <c r="X45" s="17"/>
+    </row>
+    <row r="46" spans="17:24" x14ac:dyDescent="0.4">
+      <c r="Q46" s="9"/>
+      <c r="R46" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="S46" t="s">
+        <v>79</v>
+      </c>
+      <c r="T46" s="17" t="str">
+        <f>IF(S46="X","'"&amp;R46&amp;"',","")</f>
+        <v>'seller_city',</v>
+      </c>
+      <c r="U46" s="17" t="str">
+        <f>"'"&amp;R46&amp;"',"</f>
+        <v>'seller_city',</v>
+      </c>
+      <c r="V46" s="17"/>
+      <c r="W46" s="17"/>
+      <c r="X46" s="17"/>
+    </row>
+    <row r="47" spans="17:24" x14ac:dyDescent="0.4">
+      <c r="Q47" s="9"/>
+      <c r="R47" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="S47" t="s">
+        <v>79</v>
+      </c>
+      <c r="T47" s="17" t="str">
+        <f>IF(S47="X","'"&amp;R47&amp;"',","")</f>
+        <v>'seller_state',</v>
+      </c>
+      <c r="U47" s="17" t="str">
+        <f>"'"&amp;R47&amp;"',"</f>
+        <v>'seller_state',</v>
+      </c>
+      <c r="V47" s="17"/>
+      <c r="W47" s="17"/>
+      <c r="X47" s="17"/>
+    </row>
+    <row r="48" spans="17:24" ht="18" x14ac:dyDescent="0.4">
+      <c r="Q48" s="9"/>
+      <c r="R48" s="15"/>
+      <c r="T48" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="V48" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="X48" s="21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="17:24" x14ac:dyDescent="0.4">
+      <c r="Q49" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="T49" t="str">
+        <f>RIGHT(Q49,LEN(Q49)-6)</f>
+        <v>geolocation_dataset</v>
+      </c>
+      <c r="V49" t="str">
+        <f>LEFT(V50,LEN(V50)-1)</f>
+        <v>'geolocation_zip_code_prefix','geolocation_lat','geolocation_lng','geolocation_city','geolocation_state'</v>
+      </c>
+      <c r="X49" t="str">
+        <f>LEFT(X50,LEN(X50)-1)</f>
+        <v>'geolocation_zip_code_prefix'</v>
+      </c>
+    </row>
+    <row r="50" spans="17:24" x14ac:dyDescent="0.4">
+      <c r="Q50" s="9"/>
+      <c r="R50" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="S50" t="s">
+        <v>88</v>
+      </c>
+      <c r="T50" s="17" t="str">
+        <f>IF(S50="X","'"&amp;R50&amp;"',","")</f>
+        <v>'geolocation_zip_code_prefix',</v>
+      </c>
+      <c r="U50" s="17" t="str">
+        <f>"'"&amp;R50&amp;"',"</f>
+        <v>'geolocation_zip_code_prefix',</v>
+      </c>
+      <c r="V50" s="17" t="str">
+        <f>U50&amp;U51&amp;U52&amp;U53&amp;U54</f>
+        <v>'geolocation_zip_code_prefix','geolocation_lat','geolocation_lng','geolocation_city','geolocation_state',</v>
+      </c>
+      <c r="W50" s="17"/>
+      <c r="X50" s="17" t="str">
+        <f>T50&amp;T51&amp;T52&amp;T53&amp;T54</f>
+        <v>'geolocation_zip_code_prefix',</v>
+      </c>
+    </row>
+    <row r="51" spans="17:24" x14ac:dyDescent="0.4">
+      <c r="Q51" s="9"/>
+      <c r="R51" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="T51" s="17" t="str">
+        <f>IF(S51="X","'"&amp;R51&amp;"',","")</f>
+        <v/>
+      </c>
+      <c r="U51" s="17" t="str">
+        <f>"'"&amp;R51&amp;"',"</f>
+        <v>'geolocation_lat',</v>
+      </c>
+      <c r="V51" s="17"/>
+      <c r="W51" s="17"/>
+      <c r="X51" s="17"/>
+    </row>
+    <row r="52" spans="17:24" x14ac:dyDescent="0.4">
+      <c r="Q52" s="9"/>
+      <c r="R52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T52" s="17" t="str">
+        <f>IF(S52="X","'"&amp;R52&amp;"',","")</f>
+        <v/>
+      </c>
+      <c r="U52" s="17" t="str">
+        <f>"'"&amp;R52&amp;"',"</f>
+        <v>'geolocation_lng',</v>
+      </c>
+      <c r="V52" s="17"/>
+      <c r="W52" s="17"/>
+      <c r="X52" s="17"/>
+    </row>
+    <row r="53" spans="17:24" x14ac:dyDescent="0.4">
+      <c r="Q53" s="9"/>
+      <c r="R53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T53" s="17" t="str">
+        <f>IF(S53="X","'"&amp;R53&amp;"',","")</f>
+        <v/>
+      </c>
+      <c r="U53" s="17" t="str">
+        <f>"'"&amp;R53&amp;"',"</f>
+        <v>'geolocation_city',</v>
+      </c>
+      <c r="V53" s="17"/>
+      <c r="W53" s="17"/>
+      <c r="X53" s="17"/>
+    </row>
+    <row r="54" spans="17:24" x14ac:dyDescent="0.4">
+      <c r="Q54" s="9"/>
+      <c r="R54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T54" s="17" t="str">
+        <f>IF(S54="X","'"&amp;R54&amp;"',","")</f>
+        <v/>
+      </c>
+      <c r="U54" s="17" t="str">
+        <f>"'"&amp;R54&amp;"',"</f>
+        <v>'geolocation_state',</v>
+      </c>
+      <c r="V54" s="17"/>
+      <c r="W54" s="17"/>
+      <c r="X54" s="17"/>
+    </row>
+    <row r="55" spans="17:24" ht="18" x14ac:dyDescent="0.4">
+      <c r="Q55" s="9"/>
+      <c r="T55" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="V55" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="X55" s="21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="17:24" x14ac:dyDescent="0.4">
+      <c r="Q56" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="T56" t="str">
+        <f>RIGHT(Q56,LEN(Q56)-6)</f>
+        <v>order_payments_dataset</v>
+      </c>
+      <c r="V56" t="str">
+        <f>LEFT(V57,LEN(V57)-1)</f>
+        <v>'order_id','payment_sequential','payment_type','payment_installments','payment_value'</v>
+      </c>
+      <c r="X56" t="str">
+        <f>LEFT(X57,LEN(X57)-1)</f>
+        <v>'order_id','payment_sequential','payment_type','payment_installments','payment_value'</v>
+      </c>
+    </row>
+    <row r="57" spans="17:24" x14ac:dyDescent="0.4">
+      <c r="Q57" s="9"/>
+      <c r="R57" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="S57" t="s">
+        <v>79</v>
+      </c>
+      <c r="T57" s="17" t="str">
+        <f>IF(S57="X","'"&amp;R57&amp;"',","")</f>
+        <v>'order_id',</v>
+      </c>
+      <c r="U57" s="17" t="str">
+        <f>"'"&amp;R57&amp;"',"</f>
+        <v>'order_id',</v>
+      </c>
+      <c r="V57" s="17" t="str">
+        <f>U57&amp;U58&amp;U59&amp;U60&amp;U61</f>
+        <v>'order_id','payment_sequential','payment_type','payment_installments','payment_value',</v>
+      </c>
+      <c r="W57" s="17"/>
+      <c r="X57" s="17" t="str">
+        <f>T57&amp;T58&amp;T59&amp;T60&amp;T61</f>
+        <v>'order_id','payment_sequential','payment_type','payment_installments','payment_value',</v>
+      </c>
+    </row>
+    <row r="58" spans="17:24" x14ac:dyDescent="0.4">
+      <c r="Q58" s="9"/>
+      <c r="R58" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="S58" t="s">
+        <v>79</v>
+      </c>
+      <c r="T58" s="17" t="str">
+        <f>IF(S58="X","'"&amp;R58&amp;"',","")</f>
+        <v>'payment_sequential',</v>
+      </c>
+      <c r="U58" s="17" t="str">
+        <f>"'"&amp;R58&amp;"',"</f>
+        <v>'payment_sequential',</v>
+      </c>
+      <c r="V58" s="17"/>
+      <c r="W58" s="17"/>
+      <c r="X58" s="17"/>
+    </row>
+    <row r="59" spans="17:24" x14ac:dyDescent="0.4">
+      <c r="Q59" s="9"/>
+      <c r="R59" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S59" t="s">
+        <v>79</v>
+      </c>
+      <c r="T59" s="17" t="str">
+        <f>IF(S59="X","'"&amp;R59&amp;"',","")</f>
+        <v>'payment_type',</v>
+      </c>
+      <c r="U59" s="17" t="str">
+        <f>"'"&amp;R59&amp;"',"</f>
+        <v>'payment_type',</v>
+      </c>
+      <c r="V59" s="17"/>
+      <c r="W59" s="17"/>
+      <c r="X59" s="17"/>
+    </row>
+    <row r="60" spans="17:24" x14ac:dyDescent="0.4">
+      <c r="Q60" s="9"/>
+      <c r="R60" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="S60" t="s">
+        <v>79</v>
+      </c>
+      <c r="T60" s="17" t="str">
+        <f>IF(S60="X","'"&amp;R60&amp;"',","")</f>
+        <v>'payment_installments',</v>
+      </c>
+      <c r="U60" s="17" t="str">
+        <f>"'"&amp;R60&amp;"',"</f>
+        <v>'payment_installments',</v>
+      </c>
+      <c r="V60" s="17"/>
+      <c r="W60" s="17"/>
+      <c r="X60" s="17"/>
+    </row>
+    <row r="61" spans="17:24" x14ac:dyDescent="0.4">
+      <c r="Q61" s="9"/>
+      <c r="R61" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="S61" t="s">
+        <v>79</v>
+      </c>
+      <c r="T61" s="17" t="str">
+        <f>IF(S61="X","'"&amp;R61&amp;"',","")</f>
+        <v>'payment_value',</v>
+      </c>
+      <c r="U61" s="17" t="str">
+        <f>"'"&amp;R61&amp;"',"</f>
+        <v>'payment_value',</v>
+      </c>
+      <c r="V61" s="17"/>
+      <c r="W61" s="17"/>
+      <c r="X61" s="17"/>
+    </row>
+    <row r="62" spans="17:24" ht="18" x14ac:dyDescent="0.4">
+      <c r="Q62" s="9"/>
+      <c r="T62" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="V62" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="X62" s="21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="17:24" x14ac:dyDescent="0.4">
+      <c r="Q63" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="T63" t="str">
+        <f>RIGHT(Q63,LEN(Q63)-6)</f>
+        <v>order_reviews_dataset</v>
+      </c>
+      <c r="V63" t="str">
+        <f>LEFT(V64,LEN(V64)-1)</f>
+        <v>'review_id','order_id','review_score','review_comment_title','review_comment_message','review_creation_date','review_answer_timestamp'</v>
+      </c>
+      <c r="X63" t="str">
+        <f>LEFT(X64,LEN(X64)-1)</f>
+        <v>'review_id','review_comment_title','review_comment_message','review_creation_date','review_answer_timestamp'</v>
+      </c>
+    </row>
+    <row r="64" spans="17:24" x14ac:dyDescent="0.4">
+      <c r="R64" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="S64" t="s">
+        <v>79</v>
+      </c>
+      <c r="T64" s="17" t="str">
+        <f>IF(S64="X","'"&amp;R64&amp;"',","")</f>
+        <v>'review_id',</v>
+      </c>
+      <c r="U64" s="17" t="str">
+        <f>"'"&amp;R64&amp;"',"</f>
+        <v>'review_id',</v>
+      </c>
+      <c r="V64" s="17" t="str">
+        <f>U64&amp;U65&amp;U66&amp;U67&amp;U68&amp;U69&amp;U70</f>
+        <v>'review_id','order_id','review_score','review_comment_title','review_comment_message','review_creation_date','review_answer_timestamp',</v>
+      </c>
+      <c r="W64" s="17"/>
+      <c r="X64" s="17" t="str">
+        <f>T64&amp;T65&amp;T66&amp;T67&amp;T68&amp;T69&amp;T70</f>
+        <v>'review_id','review_comment_title','review_comment_message','review_creation_date','review_answer_timestamp',</v>
+      </c>
+    </row>
+    <row r="65" spans="18:25" x14ac:dyDescent="0.4">
+      <c r="R65" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T65" s="17" t="str">
+        <f>IF(S65="X","'"&amp;R65&amp;"',","")</f>
+        <v/>
+      </c>
+      <c r="U65" s="17" t="str">
+        <f>"'"&amp;R65&amp;"',"</f>
+        <v>'order_id',</v>
+      </c>
+      <c r="V65" s="17"/>
+      <c r="W65" s="17"/>
+      <c r="X65" s="17"/>
+    </row>
+    <row r="66" spans="18:25" x14ac:dyDescent="0.4">
+      <c r="R66" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T66" s="17" t="str">
+        <f>IF(S66="X","'"&amp;R66&amp;"',","")</f>
+        <v/>
+      </c>
+      <c r="U66" s="17" t="str">
+        <f>"'"&amp;R66&amp;"',"</f>
+        <v>'review_score',</v>
+      </c>
+      <c r="V66" s="17"/>
+      <c r="W66" s="17"/>
+      <c r="X66" s="17"/>
+    </row>
+    <row r="67" spans="18:25" x14ac:dyDescent="0.4">
+      <c r="R67" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="S67" t="s">
+        <v>79</v>
+      </c>
+      <c r="T67" s="17" t="str">
+        <f>IF(S67="X","'"&amp;R67&amp;"',","")</f>
+        <v>'review_comment_title',</v>
+      </c>
+      <c r="U67" s="17" t="str">
+        <f>"'"&amp;R67&amp;"',"</f>
+        <v>'review_comment_title',</v>
+      </c>
+      <c r="V67" s="17"/>
+      <c r="W67" s="17"/>
+      <c r="X67" s="17"/>
+    </row>
+    <row r="68" spans="18:25" x14ac:dyDescent="0.4">
+      <c r="R68" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S68" t="s">
+        <v>79</v>
+      </c>
+      <c r="T68" s="17" t="str">
+        <f>IF(S68="X","'"&amp;R68&amp;"',","")</f>
+        <v>'review_comment_message',</v>
+      </c>
+      <c r="U68" s="17" t="str">
+        <f>"'"&amp;R68&amp;"',"</f>
+        <v>'review_comment_message',</v>
+      </c>
+      <c r="V68" s="17"/>
+      <c r="W68" s="17"/>
+      <c r="X68" s="17"/>
+    </row>
+    <row r="69" spans="18:25" x14ac:dyDescent="0.4">
+      <c r="R69" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="S69" t="s">
+        <v>79</v>
+      </c>
+      <c r="T69" s="17" t="str">
+        <f t="shared" ref="T69:T70" si="4">IF(S69="X","'"&amp;R69&amp;"',","")</f>
+        <v>'review_creation_date',</v>
+      </c>
+      <c r="U69" s="17" t="str">
+        <f>"'"&amp;R69&amp;"',"</f>
+        <v>'review_creation_date',</v>
+      </c>
+      <c r="V69" s="17"/>
+      <c r="W69" s="17"/>
+      <c r="X69" s="17"/>
+      <c r="Y69" s="22"/>
+    </row>
+    <row r="70" spans="18:25" x14ac:dyDescent="0.4">
+      <c r="R70" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="S70" t="s">
+        <v>79</v>
+      </c>
+      <c r="T70" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v>'review_answer_timestamp',</v>
+      </c>
+      <c r="U70" s="17" t="str">
+        <f>"'"&amp;R70&amp;"',"</f>
+        <v>'review_answer_timestamp',</v>
+      </c>
+      <c r="V70" s="17"/>
+      <c r="W70" s="17"/>
+      <c r="X70" s="17"/>
+      <c r="Y70" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/archive/테이블 내용 분석.xlsx
+++ b/archive/테이블 내용 분석.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\python-workspace\project\Brazilian_region\archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8C69F9-5339-4083-B288-B5A9121BB7E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EF14F8-A6E9-4732-8959-5EA5D75E1910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CAC23EC8-D424-486C-A35F-FA82082F0319}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
   <si>
     <t>olist_customers_dataset</t>
   </si>
@@ -321,12 +321,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>products_dataset2</t>
-  </si>
-  <si>
-    <t>'product_name_lenght','product_description_lenght','product_photos_qty','product_weight_g','product_length_cm','product_height_cm','product_width_cm'</t>
-  </si>
-  <si>
     <t>geolocation_zip_code_prefix</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -339,14 +333,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>'product_id','product_name_lenght','product_description_lenght','product_photos_qty','product_weight_g','product_length_cm','product_height_cm','product_width_cm','product_category_name_english'</t>
-  </si>
-  <si>
     <t>olist_geolocation_dataset</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seller_state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sellers_dataset</t>
+  </si>
+  <si>
+    <t>'seller_id','seller_zip_code_prefix','seller_city','seller_state'</t>
+  </si>
+  <si>
+    <t>'seller_city','seller_state'</t>
+  </si>
+  <si>
+    <t>no</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -539,7 +551,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -610,6 +622,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -926,7 +941,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9289CF73-5C91-4C0E-B968-B70015503968}">
-  <dimension ref="B2:L31"/>
+  <dimension ref="B2:R31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
@@ -968,7 +983,7 @@
         <v>51</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.4">
@@ -1122,7 +1137,7 @@
         <v>35</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>41</v>
@@ -1140,7 +1155,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
         <v>14</v>
       </c>
@@ -1166,7 +1181,7 @@
         <v>13023</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B18" s="2" t="s">
         <v>30</v>
       </c>
@@ -1192,7 +1207,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B19" s="12" t="s">
         <v>31</v>
       </c>
@@ -1209,13 +1224,13 @@
         <v>21</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L19" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B20" s="2" t="s">
         <v>32</v>
       </c>
@@ -1232,7 +1247,7 @@
         <v>42997.406655092593</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B21" s="12" t="s">
         <v>33</v>
       </c>
@@ -1252,7 +1267,7 @@
         <v>58.9</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B22" s="12" t="s">
         <v>34</v>
       </c>
@@ -1272,7 +1287,7 @@
         <v>13.29</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.4">
       <c r="E23" s="12" t="s">
         <v>40</v>
       </c>
@@ -1280,12 +1295,12 @@
         <v>43026</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.4">
       <c r="K25" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.4">
       <c r="E26" s="9" t="s">
         <v>0</v>
       </c>
@@ -1295,8 +1310,14 @@
       <c r="L26" s="9">
         <v>1037</v>
       </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="N26" s="9">
+        <v>1</v>
+      </c>
+      <c r="R26" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.4">
       <c r="E27" s="5" t="s">
         <v>59</v>
       </c>
@@ -1309,8 +1330,24 @@
       <c r="L27" s="9">
         <v>-23.545621281152599</v>
       </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="N27" s="9">
+        <v>-23.545621281152599</v>
+      </c>
+      <c r="O27" s="9">
+        <v>-23.545621281152599</v>
+      </c>
+      <c r="P27" s="9">
+        <v>-23.545621281152599</v>
+      </c>
+      <c r="Q27" s="9">
+        <v>-23.545621281152599</v>
+      </c>
+      <c r="R27" s="9">
+        <f>AVERAGE(N27:Q27)</f>
+        <v>-23.545621281152599</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.4">
       <c r="E28" s="12" t="s">
         <v>60</v>
       </c>
@@ -1323,8 +1360,24 @@
       <c r="L28" s="9">
         <v>-46.6392920480016</v>
       </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="N28" s="9">
+        <v>-46.6392920480016</v>
+      </c>
+      <c r="O28" s="9">
+        <v>-46.6392920480016</v>
+      </c>
+      <c r="P28" s="9">
+        <v>-46.6392920480016</v>
+      </c>
+      <c r="Q28" s="9">
+        <v>-46.6392920480016</v>
+      </c>
+      <c r="R28" s="9">
+        <f>AVERAGE(N28:Q28)</f>
+        <v>-46.6392920480016</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.4">
       <c r="E29" s="8" t="s">
         <v>63</v>
       </c>
@@ -1338,7 +1391,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.4">
       <c r="E30" s="12" t="s">
         <v>73</v>
       </c>
@@ -1352,7 +1405,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.4">
       <c r="E31" s="12" t="s">
         <v>74</v>
       </c>
@@ -1369,7 +1422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2542595D-13B2-4BFD-ABF6-12085080FD5C}">
-  <dimension ref="B2:Z70"/>
+  <dimension ref="B2:Z71"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
@@ -1387,7 +1440,7 @@
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
@@ -1408,7 +1461,7 @@
         <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
@@ -1429,7 +1482,7 @@
         <v>77</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
@@ -1468,7 +1521,7 @@
     <row r="6" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B6" t="str">
         <f>"delete_"&amp;C2&amp;" = "&amp;C2&amp;".loc[:,["&amp;C3&amp;"]]"</f>
-        <v>delete_products_dataset2 = products_dataset2.loc[:,['product_id','product_name_lenght','product_description_lenght','product_photos_qty','product_weight_g','product_length_cm','product_height_cm','product_width_cm','product_category_name_english']]</v>
+        <v>delete_sellers_dataset = sellers_dataset.loc[:,['seller_id','seller_zip_code_prefix','seller_city','seller_state']]</v>
       </c>
       <c r="Q6" s="9" t="s">
         <v>0</v>
@@ -1492,7 +1545,7 @@
     <row r="7" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B7" t="str">
         <f>"delete_"&amp;C2&amp;"1=delete_"&amp;C2&amp;".drop(["&amp;C4&amp;"],axis='columns')"</f>
-        <v>delete_products_dataset21=delete_products_dataset2.drop(['product_name_lenght','product_description_lenght','product_photos_qty','product_weight_g','product_length_cm','product_height_cm','product_width_cm'],axis='columns')</v>
+        <v>delete_sellers_dataset1=delete_sellers_dataset.drop(['seller_city','seller_state'],axis='columns')</v>
       </c>
       <c r="R7" s="5" t="s">
         <v>59</v>
@@ -1537,7 +1590,7 @@
     <row r="9" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B9" t="str">
         <f>"delete_"&amp;C2&amp;"1.to_csv('delete_"&amp;C2&amp;"1.csv',index=None)"</f>
-        <v>delete_products_dataset21.to_csv('delete_products_dataset21.csv',index=None)</v>
+        <v>delete_sellers_dataset1.to_csv('delete_sellers_dataset1.csv',index=None)</v>
       </c>
       <c r="R9" s="8" t="s">
         <v>63</v>
@@ -1617,7 +1670,7 @@
       </c>
       <c r="X13" t="str">
         <f>LEFT(X14,LEN(X14)-1)</f>
-        <v>'order_status','order_estimated_delivery_date'</v>
+        <v>'order_estimated_delivery_date'</v>
       </c>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.4">
@@ -1630,7 +1683,7 @@
         <v/>
       </c>
       <c r="U14" s="17" t="str">
-        <f>"'"&amp;R14&amp;"',"</f>
+        <f t="shared" ref="U14:U21" si="1">"'"&amp;R14&amp;"',"</f>
         <v>'order_id',</v>
       </c>
       <c r="V14" s="17" t="str">
@@ -1640,7 +1693,7 @@
       <c r="W14" s="17"/>
       <c r="X14" s="17" t="str">
         <f>T14&amp;T15&amp;T16&amp;T17&amp;T18&amp;T19&amp;T20&amp;T21</f>
-        <v>'order_status','order_estimated_delivery_date',</v>
+        <v>'order_estimated_delivery_date',</v>
       </c>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.4">
@@ -1653,7 +1706,7 @@
         <v/>
       </c>
       <c r="U15" s="17" t="str">
-        <f>"'"&amp;R15&amp;"',"</f>
+        <f t="shared" si="1"/>
         <v>'customer_id',</v>
       </c>
       <c r="V15" s="17"/>
@@ -1665,15 +1718,12 @@
       <c r="R16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="S16" t="s">
-        <v>79</v>
-      </c>
       <c r="T16" s="17" t="str">
         <f>IF(S16="X","'"&amp;R16&amp;"',","")</f>
-        <v>'order_status',</v>
+        <v/>
       </c>
       <c r="U16" s="17" t="str">
-        <f>"'"&amp;R16&amp;"',"</f>
+        <f t="shared" si="1"/>
         <v>'order_status',</v>
       </c>
       <c r="V16" s="17"/>
@@ -1690,7 +1740,7 @@
         <v/>
       </c>
       <c r="U17" s="17" t="str">
-        <f>"'"&amp;R17&amp;"',"</f>
+        <f t="shared" si="1"/>
         <v>'order_purchase_timestamp',</v>
       </c>
       <c r="V17" s="17"/>
@@ -1707,7 +1757,7 @@
         <v/>
       </c>
       <c r="U18" s="17" t="str">
-        <f>"'"&amp;R18&amp;"',"</f>
+        <f t="shared" si="1"/>
         <v>'order_approved_at',</v>
       </c>
       <c r="V18" s="17"/>
@@ -1720,11 +1770,11 @@
         <v>38</v>
       </c>
       <c r="T19" s="17" t="str">
-        <f t="shared" ref="T19:T21" si="1">IF(S19="X","'"&amp;R19&amp;"',","")</f>
+        <f t="shared" ref="T19:T21" si="2">IF(S19="X","'"&amp;R19&amp;"',","")</f>
         <v/>
       </c>
       <c r="U19" s="17" t="str">
-        <f>"'"&amp;R19&amp;"',"</f>
+        <f t="shared" si="1"/>
         <v>'order_delivered_carrier_date',</v>
       </c>
       <c r="V19" s="17"/>
@@ -1738,11 +1788,11 @@
         <v>39</v>
       </c>
       <c r="T20" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="U20" s="17" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="U20" s="17" t="str">
-        <f>"'"&amp;R20&amp;"',"</f>
         <v>'order_delivered_customer_date',</v>
       </c>
       <c r="V20" s="17"/>
@@ -1759,11 +1809,11 @@
         <v>79</v>
       </c>
       <c r="T21" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>'order_estimated_delivery_date',</v>
+      </c>
+      <c r="U21" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>'order_estimated_delivery_date',</v>
-      </c>
-      <c r="U21" s="17" t="str">
-        <f>"'"&amp;R21&amp;"',"</f>
         <v>'order_estimated_delivery_date',</v>
       </c>
       <c r="V21" s="17"/>
@@ -1797,9 +1847,9 @@
         <f>LEFT(V24,LEN(V24)-1)</f>
         <v>'order_id','order_item_id','product_id','seller_id','shipping_limit_date','price','freight_value'</v>
       </c>
-      <c r="X23" t="str">
+      <c r="X23" t="e">
         <f>LEFT(X24,LEN(X24)-1)</f>
-        <v>'order_item_id','shipping_limit_date','price','freight_value'</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="24" spans="17:25" x14ac:dyDescent="0.4">
@@ -1812,7 +1862,7 @@
         <v/>
       </c>
       <c r="U24" s="17" t="str">
-        <f>"'"&amp;R24&amp;"',"</f>
+        <f t="shared" ref="U24:U30" si="3">"'"&amp;R24&amp;"',"</f>
         <v>'order_id',</v>
       </c>
       <c r="V24" s="17" t="str">
@@ -1822,7 +1872,7 @@
       <c r="W24" s="17"/>
       <c r="X24" s="17" t="str">
         <f>T24&amp;T25&amp;T26&amp;T27&amp;T28&amp;T29&amp;T30</f>
-        <v>'order_item_id','shipping_limit_date','price','freight_value',</v>
+        <v/>
       </c>
     </row>
     <row r="25" spans="17:25" x14ac:dyDescent="0.4">
@@ -1830,15 +1880,12 @@
       <c r="R25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S25" t="s">
-        <v>79</v>
-      </c>
       <c r="T25" s="17" t="str">
         <f>IF(S25="X","'"&amp;R25&amp;"',","")</f>
-        <v>'order_item_id',</v>
+        <v/>
       </c>
       <c r="U25" s="17" t="str">
-        <f>"'"&amp;R25&amp;"',"</f>
+        <f t="shared" si="3"/>
         <v>'order_item_id',</v>
       </c>
       <c r="V25" s="17"/>
@@ -1855,7 +1902,7 @@
         <v/>
       </c>
       <c r="U26" s="17" t="str">
-        <f>"'"&amp;R26&amp;"',"</f>
+        <f t="shared" si="3"/>
         <v>'product_id',</v>
       </c>
       <c r="V26" s="17"/>
@@ -1872,7 +1919,7 @@
         <v/>
       </c>
       <c r="U27" s="17" t="str">
-        <f>"'"&amp;R27&amp;"',"</f>
+        <f t="shared" si="3"/>
         <v>'seller_id',</v>
       </c>
       <c r="V27" s="17"/>
@@ -1884,15 +1931,12 @@
       <c r="R28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S28" t="s">
-        <v>79</v>
-      </c>
       <c r="T28" s="17" t="str">
         <f>IF(S28="X","'"&amp;R28&amp;"',","")</f>
-        <v>'shipping_limit_date',</v>
+        <v/>
       </c>
       <c r="U28" s="17" t="str">
-        <f>"'"&amp;R28&amp;"',"</f>
+        <f t="shared" si="3"/>
         <v>'shipping_limit_date',</v>
       </c>
       <c r="V28" s="17"/>
@@ -1904,15 +1948,12 @@
       <c r="R29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S29" t="s">
-        <v>79</v>
-      </c>
       <c r="T29" s="17" t="str">
-        <f t="shared" ref="T29:T30" si="2">IF(S29="X","'"&amp;R29&amp;"',","")</f>
-        <v>'price',</v>
+        <f t="shared" ref="T29:T30" si="4">IF(S29="X","'"&amp;R29&amp;"',","")</f>
+        <v/>
       </c>
       <c r="U29" s="17" t="str">
-        <f>"'"&amp;R29&amp;"',"</f>
+        <f t="shared" si="3"/>
         <v>'price',</v>
       </c>
       <c r="V29" s="17"/>
@@ -1924,15 +1965,12 @@
       <c r="R30" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="S30" t="s">
-        <v>79</v>
-      </c>
       <c r="T30" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v>'freight_value',</v>
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="U30" s="17" t="str">
-        <f>"'"&amp;R30&amp;"',"</f>
+        <f t="shared" si="3"/>
         <v>'freight_value',</v>
       </c>
       <c r="V30" s="17"/>
@@ -1962,51 +2000,48 @@
       </c>
       <c r="V32" t="str">
         <f>LEFT(V33,LEN(V33)-1)</f>
-        <v>'product_id','product_name_lenght','product_description_lenght','product_photos_qty','product_weight_g','product_length_cm','product_height_cm','product_width_cm','product_category_name_english'</v>
+        <v>'no','product_id','product_name_lenght','product_description_lenght','product_photos_qty','product_weight_g','product_length_cm','product_height_cm','product_width_cm'</v>
       </c>
       <c r="X32" t="str">
         <f>LEFT(X33,LEN(X33)-1)</f>
-        <v>'product_name_lenght','product_description_lenght','product_photos_qty','product_weight_g','product_length_cm','product_height_cm','product_width_cm'</v>
+        <v>'product_name_lenght','product_description_lenght','product_photos_qty'</v>
       </c>
     </row>
     <row r="33" spans="17:24" x14ac:dyDescent="0.4">
       <c r="Q33" s="9"/>
-      <c r="R33" s="9" t="s">
-        <v>16</v>
+      <c r="R33" s="24" t="s">
+        <v>91</v>
       </c>
       <c r="T33" s="17" t="str">
         <f>IF(S33="X","'"&amp;R33&amp;"',","")</f>
         <v/>
       </c>
       <c r="U33" s="17" t="str">
-        <f>"'"&amp;R33&amp;"',"</f>
-        <v>'product_id',</v>
+        <f t="shared" ref="U33:U42" si="5">"'"&amp;R33&amp;"',"</f>
+        <v>'no',</v>
       </c>
       <c r="V33" s="17" t="str">
         <f>U33&amp;U34&amp;U35&amp;U36&amp;U37&amp;U38&amp;U39&amp;U40&amp;U41</f>
-        <v>'product_id','product_name_lenght','product_description_lenght','product_photos_qty','product_weight_g','product_length_cm','product_height_cm','product_width_cm','product_category_name_english',</v>
+        <v>'no','product_id','product_name_lenght','product_description_lenght','product_photos_qty','product_weight_g','product_length_cm','product_height_cm','product_width_cm',</v>
       </c>
       <c r="W33" s="17"/>
       <c r="X33" s="17" t="str">
         <f>T33&amp;T34&amp;T35&amp;T36&amp;T37&amp;T38&amp;T39&amp;T40&amp;T41</f>
-        <v>'product_name_lenght','product_description_lenght','product_photos_qty','product_weight_g','product_length_cm','product_height_cm','product_width_cm',</v>
+        <v>'product_name_lenght','product_description_lenght','product_photos_qty',</v>
       </c>
     </row>
     <row r="34" spans="17:24" x14ac:dyDescent="0.4">
       <c r="Q34" s="9"/>
       <c r="R34" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="S34" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="T34" s="17" t="str">
         <f>IF(S34="X","'"&amp;R34&amp;"',","")</f>
-        <v>'product_name_lenght',</v>
+        <v/>
       </c>
       <c r="U34" s="17" t="str">
-        <f>"'"&amp;R34&amp;"',"</f>
-        <v>'product_name_lenght',</v>
+        <f t="shared" si="5"/>
+        <v>'product_id',</v>
       </c>
       <c r="V34" s="17"/>
       <c r="W34" s="17"/>
@@ -2015,18 +2050,18 @@
     <row r="35" spans="17:24" x14ac:dyDescent="0.4">
       <c r="Q35" s="9"/>
       <c r="R35" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S35" t="s">
         <v>79</v>
       </c>
       <c r="T35" s="17" t="str">
         <f>IF(S35="X","'"&amp;R35&amp;"',","")</f>
-        <v>'product_description_lenght',</v>
+        <v>'product_name_lenght',</v>
       </c>
       <c r="U35" s="17" t="str">
-        <f>"'"&amp;R35&amp;"',"</f>
-        <v>'product_description_lenght',</v>
+        <f t="shared" si="5"/>
+        <v>'product_name_lenght',</v>
       </c>
       <c r="V35" s="17"/>
       <c r="W35" s="17"/>
@@ -2035,18 +2070,18 @@
     <row r="36" spans="17:24" x14ac:dyDescent="0.4">
       <c r="Q36" s="9"/>
       <c r="R36" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S36" t="s">
         <v>79</v>
       </c>
       <c r="T36" s="17" t="str">
         <f>IF(S36="X","'"&amp;R36&amp;"',","")</f>
-        <v>'product_photos_qty',</v>
+        <v>'product_description_lenght',</v>
       </c>
       <c r="U36" s="17" t="str">
-        <f>"'"&amp;R36&amp;"',"</f>
-        <v>'product_photos_qty',</v>
+        <f t="shared" si="5"/>
+        <v>'product_description_lenght',</v>
       </c>
       <c r="V36" s="17"/>
       <c r="W36" s="17"/>
@@ -2055,18 +2090,18 @@
     <row r="37" spans="17:24" x14ac:dyDescent="0.4">
       <c r="Q37" s="9"/>
       <c r="R37" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S37" t="s">
         <v>79</v>
       </c>
       <c r="T37" s="17" t="str">
         <f>IF(S37="X","'"&amp;R37&amp;"',","")</f>
-        <v>'product_weight_g',</v>
+        <v>'product_photos_qty',</v>
       </c>
       <c r="U37" s="17" t="str">
-        <f>"'"&amp;R37&amp;"',"</f>
-        <v>'product_weight_g',</v>
+        <f t="shared" si="5"/>
+        <v>'product_photos_qty',</v>
       </c>
       <c r="V37" s="17"/>
       <c r="W37" s="17"/>
@@ -2075,18 +2110,15 @@
     <row r="38" spans="17:24" x14ac:dyDescent="0.4">
       <c r="Q38" s="9"/>
       <c r="R38" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="S38" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="T38" s="17" t="str">
-        <f t="shared" ref="T38:T41" si="3">IF(S38="X","'"&amp;R38&amp;"',","")</f>
-        <v>'product_length_cm',</v>
+        <f>IF(S38="X","'"&amp;R38&amp;"',","")</f>
+        <v/>
       </c>
       <c r="U38" s="17" t="str">
-        <f>"'"&amp;R38&amp;"',"</f>
-        <v>'product_length_cm',</v>
+        <f t="shared" si="5"/>
+        <v>'product_weight_g',</v>
       </c>
       <c r="V38" s="17"/>
       <c r="W38" s="17"/>
@@ -2095,18 +2127,15 @@
     <row r="39" spans="17:24" x14ac:dyDescent="0.4">
       <c r="Q39" s="9"/>
       <c r="R39" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="S39" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="T39" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v>'product_height_cm',</v>
+        <f t="shared" ref="T39:T42" si="6">IF(S39="X","'"&amp;R39&amp;"',","")</f>
+        <v/>
       </c>
       <c r="U39" s="17" t="str">
-        <f>"'"&amp;R39&amp;"',"</f>
-        <v>'product_height_cm',</v>
+        <f t="shared" si="5"/>
+        <v>'product_length_cm',</v>
       </c>
       <c r="V39" s="17"/>
       <c r="W39" s="17"/>
@@ -2115,18 +2144,15 @@
     <row r="40" spans="17:24" x14ac:dyDescent="0.4">
       <c r="Q40" s="9"/>
       <c r="R40" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="S40" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="T40" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v>'product_width_cm',</v>
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="U40" s="17" t="str">
-        <f>"'"&amp;R40&amp;"',"</f>
-        <v>'product_width_cm',</v>
+        <f t="shared" si="5"/>
+        <v>'product_height_cm',</v>
       </c>
       <c r="V40" s="17"/>
       <c r="W40" s="17"/>
@@ -2135,76 +2161,70 @@
     <row r="41" spans="17:24" x14ac:dyDescent="0.4">
       <c r="Q41" s="9"/>
       <c r="R41" s="9" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="T41" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="U41" s="17" t="str">
-        <f>"'"&amp;R41&amp;"',"</f>
-        <v>'product_category_name_english',</v>
+        <f t="shared" si="5"/>
+        <v>'product_width_cm',</v>
       </c>
       <c r="V41" s="17"/>
       <c r="W41" s="17"/>
       <c r="X41" s="17"/>
     </row>
-    <row r="42" spans="17:24" ht="18" x14ac:dyDescent="0.4">
+    <row r="42" spans="17:24" x14ac:dyDescent="0.4">
       <c r="Q42" s="9"/>
-      <c r="T42" s="21" t="s">
+      <c r="R42" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="T42" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="U42" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>'product_category_name_english',</v>
+      </c>
+      <c r="V42" s="17"/>
+      <c r="W42" s="17"/>
+      <c r="X42" s="17"/>
+    </row>
+    <row r="43" spans="17:24" ht="18" x14ac:dyDescent="0.4">
+      <c r="Q43" s="9"/>
+      <c r="T43" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="V42" s="21" t="s">
+      <c r="V43" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="X42" s="21" t="s">
+      <c r="X43" s="21" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="17:24" x14ac:dyDescent="0.4">
-      <c r="Q43" s="9" t="s">
+    <row r="44" spans="17:24" x14ac:dyDescent="0.4">
+      <c r="Q44" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="T43" t="str">
-        <f>RIGHT(Q43,LEN(Q43)-6)</f>
+      <c r="T44" t="str">
+        <f>RIGHT(Q44,LEN(Q44)-6)</f>
         <v>sellers_dataset</v>
       </c>
-      <c r="V43" t="str">
-        <f>LEFT(V44,LEN(V44)-1)</f>
+      <c r="V44" t="str">
+        <f>LEFT(V45,LEN(V45)-1)</f>
         <v>'seller_id','seller_zip_code_prefix','seller_city','seller_state'</v>
       </c>
-      <c r="X43" t="str">
-        <f>LEFT(X44,LEN(X44)-1)</f>
+      <c r="X44" t="str">
+        <f>LEFT(X45,LEN(X45)-1)</f>
         <v>'seller_city','seller_state'</v>
-      </c>
-    </row>
-    <row r="44" spans="17:24" x14ac:dyDescent="0.4">
-      <c r="Q44" s="9"/>
-      <c r="R44" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="T44" s="17" t="str">
-        <f>IF(S44="X","'"&amp;R44&amp;"',","")</f>
-        <v/>
-      </c>
-      <c r="U44" s="17" t="str">
-        <f>"'"&amp;R44&amp;"',"</f>
-        <v>'seller_id',</v>
-      </c>
-      <c r="V44" s="17" t="str">
-        <f>U44&amp;U45&amp;U46&amp;U47</f>
-        <v>'seller_id','seller_zip_code_prefix','seller_city','seller_state',</v>
-      </c>
-      <c r="W44" s="17"/>
-      <c r="X44" s="17" t="str">
-        <f>T44&amp;T45&amp;T46&amp;T47</f>
-        <v>'seller_city','seller_state',</v>
       </c>
     </row>
     <row r="45" spans="17:24" x14ac:dyDescent="0.4">
       <c r="Q45" s="9"/>
-      <c r="R45" s="6" t="s">
-        <v>61</v>
+      <c r="R45" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="T45" s="17" t="str">
         <f>IF(S45="X","'"&amp;R45&amp;"',","")</f>
@@ -2212,27 +2232,30 @@
       </c>
       <c r="U45" s="17" t="str">
         <f>"'"&amp;R45&amp;"',"</f>
-        <v>'seller_zip_code_prefix',</v>
-      </c>
-      <c r="V45" s="17"/>
+        <v>'seller_id',</v>
+      </c>
+      <c r="V45" s="17" t="str">
+        <f>U45&amp;U46&amp;U47&amp;U48</f>
+        <v>'seller_id','seller_zip_code_prefix','seller_city','seller_state',</v>
+      </c>
       <c r="W45" s="17"/>
-      <c r="X45" s="17"/>
+      <c r="X45" s="17" t="str">
+        <f>T45&amp;T46&amp;T47&amp;T48</f>
+        <v>'seller_city','seller_state',</v>
+      </c>
     </row>
     <row r="46" spans="17:24" x14ac:dyDescent="0.4">
       <c r="Q46" s="9"/>
-      <c r="R46" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="S46" t="s">
-        <v>79</v>
+      <c r="R46" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="T46" s="17" t="str">
         <f>IF(S46="X","'"&amp;R46&amp;"',","")</f>
-        <v>'seller_city',</v>
+        <v/>
       </c>
       <c r="U46" s="17" t="str">
         <f>"'"&amp;R46&amp;"',"</f>
-        <v>'seller_city',</v>
+        <v>'seller_zip_code_prefix',</v>
       </c>
       <c r="V46" s="17"/>
       <c r="W46" s="17"/>
@@ -2241,100 +2264,103 @@
     <row r="47" spans="17:24" x14ac:dyDescent="0.4">
       <c r="Q47" s="9"/>
       <c r="R47" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S47" t="s">
         <v>79</v>
       </c>
       <c r="T47" s="17" t="str">
         <f>IF(S47="X","'"&amp;R47&amp;"',","")</f>
-        <v>'seller_state',</v>
+        <v>'seller_city',</v>
       </c>
       <c r="U47" s="17" t="str">
         <f>"'"&amp;R47&amp;"',"</f>
-        <v>'seller_state',</v>
+        <v>'seller_city',</v>
       </c>
       <c r="V47" s="17"/>
       <c r="W47" s="17"/>
       <c r="X47" s="17"/>
     </row>
-    <row r="48" spans="17:24" ht="18" x14ac:dyDescent="0.4">
+    <row r="48" spans="17:24" x14ac:dyDescent="0.4">
       <c r="Q48" s="9"/>
-      <c r="R48" s="15"/>
-      <c r="T48" s="21" t="s">
+      <c r="R48" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="S48" t="s">
+        <v>79</v>
+      </c>
+      <c r="T48" s="17" t="str">
+        <f>IF(S48="X","'"&amp;R48&amp;"',","")</f>
+        <v>'seller_state',</v>
+      </c>
+      <c r="U48" s="17" t="str">
+        <f>"'"&amp;R48&amp;"',"</f>
+        <v>'seller_state',</v>
+      </c>
+      <c r="V48" s="17"/>
+      <c r="W48" s="17"/>
+      <c r="X48" s="17"/>
+    </row>
+    <row r="49" spans="17:24" ht="18" x14ac:dyDescent="0.4">
+      <c r="Q49" s="9"/>
+      <c r="R49" s="15"/>
+      <c r="T49" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="V48" s="21" t="s">
+      <c r="V49" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="X48" s="21" t="s">
+      <c r="X49" s="21" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="49" spans="17:24" x14ac:dyDescent="0.4">
-      <c r="Q49" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="T49" t="str">
-        <f>RIGHT(Q49,LEN(Q49)-6)</f>
+    <row r="50" spans="17:24" x14ac:dyDescent="0.4">
+      <c r="Q50" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="T50" t="str">
+        <f>RIGHT(Q50,LEN(Q50)-6)</f>
         <v>geolocation_dataset</v>
       </c>
-      <c r="V49" t="str">
-        <f>LEFT(V50,LEN(V50)-1)</f>
+      <c r="V50" t="str">
+        <f>LEFT(V51,LEN(V51)-1)</f>
         <v>'geolocation_zip_code_prefix','geolocation_lat','geolocation_lng','geolocation_city','geolocation_state'</v>
       </c>
-      <c r="X49" t="str">
-        <f>LEFT(X50,LEN(X50)-1)</f>
+      <c r="X50" t="str">
+        <f>LEFT(X51,LEN(X51)-1)</f>
         <v>'geolocation_zip_code_prefix'</v>
-      </c>
-    </row>
-    <row r="50" spans="17:24" x14ac:dyDescent="0.4">
-      <c r="Q50" s="9"/>
-      <c r="R50" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="S50" t="s">
-        <v>88</v>
-      </c>
-      <c r="T50" s="17" t="str">
-        <f>IF(S50="X","'"&amp;R50&amp;"',","")</f>
-        <v>'geolocation_zip_code_prefix',</v>
-      </c>
-      <c r="U50" s="17" t="str">
-        <f>"'"&amp;R50&amp;"',"</f>
-        <v>'geolocation_zip_code_prefix',</v>
-      </c>
-      <c r="V50" s="17" t="str">
-        <f>U50&amp;U51&amp;U52&amp;U53&amp;U54</f>
-        <v>'geolocation_zip_code_prefix','geolocation_lat','geolocation_lng','geolocation_city','geolocation_state',</v>
-      </c>
-      <c r="W50" s="17"/>
-      <c r="X50" s="17" t="str">
-        <f>T50&amp;T51&amp;T52&amp;T53&amp;T54</f>
-        <v>'geolocation_zip_code_prefix',</v>
       </c>
     </row>
     <row r="51" spans="17:24" x14ac:dyDescent="0.4">
       <c r="Q51" s="9"/>
-      <c r="R51" s="2" t="s">
-        <v>8</v>
+      <c r="R51" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="S51" t="s">
+        <v>85</v>
       </c>
       <c r="T51" s="17" t="str">
         <f>IF(S51="X","'"&amp;R51&amp;"',","")</f>
-        <v/>
+        <v>'geolocation_zip_code_prefix',</v>
       </c>
       <c r="U51" s="17" t="str">
         <f>"'"&amp;R51&amp;"',"</f>
-        <v>'geolocation_lat',</v>
-      </c>
-      <c r="V51" s="17"/>
+        <v>'geolocation_zip_code_prefix',</v>
+      </c>
+      <c r="V51" s="17" t="str">
+        <f>U51&amp;U52&amp;U53&amp;U54&amp;U55</f>
+        <v>'geolocation_zip_code_prefix','geolocation_lat','geolocation_lng','geolocation_city','geolocation_state',</v>
+      </c>
       <c r="W51" s="17"/>
-      <c r="X51" s="17"/>
+      <c r="X51" s="17" t="str">
+        <f>T51&amp;T52&amp;T53&amp;T54&amp;T55</f>
+        <v>'geolocation_zip_code_prefix',</v>
+      </c>
     </row>
     <row r="52" spans="17:24" x14ac:dyDescent="0.4">
       <c r="Q52" s="9"/>
       <c r="R52" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T52" s="17" t="str">
         <f>IF(S52="X","'"&amp;R52&amp;"',","")</f>
@@ -2342,7 +2368,7 @@
       </c>
       <c r="U52" s="17" t="str">
         <f>"'"&amp;R52&amp;"',"</f>
-        <v>'geolocation_lng',</v>
+        <v>'geolocation_lat',</v>
       </c>
       <c r="V52" s="17"/>
       <c r="W52" s="17"/>
@@ -2351,7 +2377,7 @@
     <row r="53" spans="17:24" x14ac:dyDescent="0.4">
       <c r="Q53" s="9"/>
       <c r="R53" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T53" s="17" t="str">
         <f>IF(S53="X","'"&amp;R53&amp;"',","")</f>
@@ -2359,7 +2385,7 @@
       </c>
       <c r="U53" s="17" t="str">
         <f>"'"&amp;R53&amp;"',"</f>
-        <v>'geolocation_city',</v>
+        <v>'geolocation_lng',</v>
       </c>
       <c r="V53" s="17"/>
       <c r="W53" s="17"/>
@@ -2368,7 +2394,7 @@
     <row r="54" spans="17:24" x14ac:dyDescent="0.4">
       <c r="Q54" s="9"/>
       <c r="R54" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T54" s="17" t="str">
         <f>IF(S54="X","'"&amp;R54&amp;"',","")</f>
@@ -2376,102 +2402,99 @@
       </c>
       <c r="U54" s="17" t="str">
         <f>"'"&amp;R54&amp;"',"</f>
-        <v>'geolocation_state',</v>
+        <v>'geolocation_city',</v>
       </c>
       <c r="V54" s="17"/>
       <c r="W54" s="17"/>
       <c r="X54" s="17"/>
     </row>
-    <row r="55" spans="17:24" ht="18" x14ac:dyDescent="0.4">
+    <row r="55" spans="17:24" x14ac:dyDescent="0.4">
       <c r="Q55" s="9"/>
-      <c r="T55" s="21" t="s">
+      <c r="R55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T55" s="17" t="str">
+        <f>IF(S55="X","'"&amp;R55&amp;"',","")</f>
+        <v/>
+      </c>
+      <c r="U55" s="17" t="str">
+        <f>"'"&amp;R55&amp;"',"</f>
+        <v>'geolocation_state',</v>
+      </c>
+      <c r="V55" s="17"/>
+      <c r="W55" s="17"/>
+      <c r="X55" s="17"/>
+    </row>
+    <row r="56" spans="17:24" ht="18" x14ac:dyDescent="0.4">
+      <c r="Q56" s="9"/>
+      <c r="T56" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="V55" s="21" t="s">
+      <c r="V56" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="X55" s="21" t="s">
+      <c r="X56" s="21" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="56" spans="17:24" x14ac:dyDescent="0.4">
-      <c r="Q56" s="9" t="s">
+    <row r="57" spans="17:24" x14ac:dyDescent="0.4">
+      <c r="Q57" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="T56" t="str">
-        <f>RIGHT(Q56,LEN(Q56)-6)</f>
+      <c r="T57" t="str">
+        <f>RIGHT(Q57,LEN(Q57)-6)</f>
         <v>order_payments_dataset</v>
       </c>
-      <c r="V56" t="str">
-        <f>LEFT(V57,LEN(V57)-1)</f>
+      <c r="V57" t="str">
+        <f>LEFT(V58,LEN(V58)-1)</f>
         <v>'order_id','payment_sequential','payment_type','payment_installments','payment_value'</v>
       </c>
-      <c r="X56" t="str">
-        <f>LEFT(X57,LEN(X57)-1)</f>
+      <c r="X57" t="str">
+        <f>LEFT(X58,LEN(X58)-1)</f>
         <v>'order_id','payment_sequential','payment_type','payment_installments','payment_value'</v>
-      </c>
-    </row>
-    <row r="57" spans="17:24" x14ac:dyDescent="0.4">
-      <c r="Q57" s="9"/>
-      <c r="R57" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="S57" t="s">
-        <v>79</v>
-      </c>
-      <c r="T57" s="17" t="str">
-        <f>IF(S57="X","'"&amp;R57&amp;"',","")</f>
-        <v>'order_id',</v>
-      </c>
-      <c r="U57" s="17" t="str">
-        <f>"'"&amp;R57&amp;"',"</f>
-        <v>'order_id',</v>
-      </c>
-      <c r="V57" s="17" t="str">
-        <f>U57&amp;U58&amp;U59&amp;U60&amp;U61</f>
-        <v>'order_id','payment_sequential','payment_type','payment_installments','payment_value',</v>
-      </c>
-      <c r="W57" s="17"/>
-      <c r="X57" s="17" t="str">
-        <f>T57&amp;T58&amp;T59&amp;T60&amp;T61</f>
-        <v>'order_id','payment_sequential','payment_type','payment_installments','payment_value',</v>
       </c>
     </row>
     <row r="58" spans="17:24" x14ac:dyDescent="0.4">
       <c r="Q58" s="9"/>
-      <c r="R58" s="12" t="s">
-        <v>22</v>
+      <c r="R58" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="S58" t="s">
         <v>79</v>
       </c>
       <c r="T58" s="17" t="str">
         <f>IF(S58="X","'"&amp;R58&amp;"',","")</f>
-        <v>'payment_sequential',</v>
+        <v>'order_id',</v>
       </c>
       <c r="U58" s="17" t="str">
         <f>"'"&amp;R58&amp;"',"</f>
-        <v>'payment_sequential',</v>
-      </c>
-      <c r="V58" s="17"/>
+        <v>'order_id',</v>
+      </c>
+      <c r="V58" s="17" t="str">
+        <f>U58&amp;U59&amp;U60&amp;U61&amp;U62</f>
+        <v>'order_id','payment_sequential','payment_type','payment_installments','payment_value',</v>
+      </c>
       <c r="W58" s="17"/>
-      <c r="X58" s="17"/>
+      <c r="X58" s="17" t="str">
+        <f>T58&amp;T59&amp;T60&amp;T61&amp;T62</f>
+        <v>'order_id','payment_sequential','payment_type','payment_installments','payment_value',</v>
+      </c>
     </row>
     <row r="59" spans="17:24" x14ac:dyDescent="0.4">
       <c r="Q59" s="9"/>
       <c r="R59" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S59" t="s">
         <v>79</v>
       </c>
       <c r="T59" s="17" t="str">
         <f>IF(S59="X","'"&amp;R59&amp;"',","")</f>
-        <v>'payment_type',</v>
+        <v>'payment_sequential',</v>
       </c>
       <c r="U59" s="17" t="str">
         <f>"'"&amp;R59&amp;"',"</f>
-        <v>'payment_type',</v>
+        <v>'payment_sequential',</v>
       </c>
       <c r="V59" s="17"/>
       <c r="W59" s="17"/>
@@ -2480,18 +2503,18 @@
     <row r="60" spans="17:24" x14ac:dyDescent="0.4">
       <c r="Q60" s="9"/>
       <c r="R60" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S60" t="s">
         <v>79</v>
       </c>
       <c r="T60" s="17" t="str">
         <f>IF(S60="X","'"&amp;R60&amp;"',","")</f>
-        <v>'payment_installments',</v>
+        <v>'payment_type',</v>
       </c>
       <c r="U60" s="17" t="str">
         <f>"'"&amp;R60&amp;"',"</f>
-        <v>'payment_installments',</v>
+        <v>'payment_type',</v>
       </c>
       <c r="V60" s="17"/>
       <c r="W60" s="17"/>
@@ -2500,186 +2523,206 @@
     <row r="61" spans="17:24" x14ac:dyDescent="0.4">
       <c r="Q61" s="9"/>
       <c r="R61" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S61" t="s">
         <v>79</v>
       </c>
       <c r="T61" s="17" t="str">
         <f>IF(S61="X","'"&amp;R61&amp;"',","")</f>
-        <v>'payment_value',</v>
+        <v>'payment_installments',</v>
       </c>
       <c r="U61" s="17" t="str">
         <f>"'"&amp;R61&amp;"',"</f>
-        <v>'payment_value',</v>
+        <v>'payment_installments',</v>
       </c>
       <c r="V61" s="17"/>
       <c r="W61" s="17"/>
       <c r="X61" s="17"/>
     </row>
-    <row r="62" spans="17:24" ht="18" x14ac:dyDescent="0.4">
+    <row r="62" spans="17:24" x14ac:dyDescent="0.4">
       <c r="Q62" s="9"/>
-      <c r="T62" s="21" t="s">
+      <c r="R62" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="S62" t="s">
+        <v>79</v>
+      </c>
+      <c r="T62" s="17" t="str">
+        <f>IF(S62="X","'"&amp;R62&amp;"',","")</f>
+        <v>'payment_value',</v>
+      </c>
+      <c r="U62" s="17" t="str">
+        <f>"'"&amp;R62&amp;"',"</f>
+        <v>'payment_value',</v>
+      </c>
+      <c r="V62" s="17"/>
+      <c r="W62" s="17"/>
+      <c r="X62" s="17"/>
+    </row>
+    <row r="63" spans="17:24" ht="18" x14ac:dyDescent="0.4">
+      <c r="Q63" s="9"/>
+      <c r="T63" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="V62" s="21" t="s">
+      <c r="V63" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="X62" s="21" t="s">
+      <c r="X63" s="21" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="63" spans="17:24" x14ac:dyDescent="0.4">
-      <c r="Q63" s="9" t="s">
+    <row r="64" spans="17:24" x14ac:dyDescent="0.4">
+      <c r="Q64" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="T63" t="str">
-        <f>RIGHT(Q63,LEN(Q63)-6)</f>
+      <c r="T64" t="str">
+        <f>RIGHT(Q64,LEN(Q64)-6)</f>
         <v>order_reviews_dataset</v>
       </c>
-      <c r="V63" t="str">
-        <f>LEFT(V64,LEN(V64)-1)</f>
+      <c r="V64" t="str">
+        <f>LEFT(V65,LEN(V65)-1)</f>
         <v>'review_id','order_id','review_score','review_comment_title','review_comment_message','review_creation_date','review_answer_timestamp'</v>
       </c>
-      <c r="X63" t="str">
-        <f>LEFT(X64,LEN(X64)-1)</f>
+      <c r="X64" t="str">
+        <f>LEFT(X65,LEN(X65)-1)</f>
         <v>'review_id','review_comment_title','review_comment_message','review_creation_date','review_answer_timestamp'</v>
       </c>
     </row>
-    <row r="64" spans="17:24" x14ac:dyDescent="0.4">
-      <c r="R64" s="12" t="s">
+    <row r="65" spans="18:25" x14ac:dyDescent="0.4">
+      <c r="R65" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="S64" t="s">
+      <c r="S65" t="s">
         <v>79</v>
-      </c>
-      <c r="T64" s="17" t="str">
-        <f>IF(S64="X","'"&amp;R64&amp;"',","")</f>
-        <v>'review_id',</v>
-      </c>
-      <c r="U64" s="17" t="str">
-        <f>"'"&amp;R64&amp;"',"</f>
-        <v>'review_id',</v>
-      </c>
-      <c r="V64" s="17" t="str">
-        <f>U64&amp;U65&amp;U66&amp;U67&amp;U68&amp;U69&amp;U70</f>
-        <v>'review_id','order_id','review_score','review_comment_title','review_comment_message','review_creation_date','review_answer_timestamp',</v>
-      </c>
-      <c r="W64" s="17"/>
-      <c r="X64" s="17" t="str">
-        <f>T64&amp;T65&amp;T66&amp;T67&amp;T68&amp;T69&amp;T70</f>
-        <v>'review_id','review_comment_title','review_comment_message','review_creation_date','review_answer_timestamp',</v>
-      </c>
-    </row>
-    <row r="65" spans="18:25" x14ac:dyDescent="0.4">
-      <c r="R65" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="T65" s="17" t="str">
         <f>IF(S65="X","'"&amp;R65&amp;"',","")</f>
-        <v/>
+        <v>'review_id',</v>
       </c>
       <c r="U65" s="17" t="str">
-        <f>"'"&amp;R65&amp;"',"</f>
-        <v>'order_id',</v>
-      </c>
-      <c r="V65" s="17"/>
+        <f t="shared" ref="U65:U71" si="7">"'"&amp;R65&amp;"',"</f>
+        <v>'review_id',</v>
+      </c>
+      <c r="V65" s="17" t="str">
+        <f>U65&amp;U66&amp;U67&amp;U68&amp;U69&amp;U70&amp;U71</f>
+        <v>'review_id','order_id','review_score','review_comment_title','review_comment_message','review_creation_date','review_answer_timestamp',</v>
+      </c>
       <c r="W65" s="17"/>
-      <c r="X65" s="17"/>
+      <c r="X65" s="17" t="str">
+        <f>T65&amp;T66&amp;T67&amp;T68&amp;T69&amp;T70&amp;T71</f>
+        <v>'review_id','review_comment_title','review_comment_message','review_creation_date','review_answer_timestamp',</v>
+      </c>
     </row>
     <row r="66" spans="18:25" x14ac:dyDescent="0.4">
-      <c r="R66" s="2" t="s">
-        <v>30</v>
+      <c r="R66" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="T66" s="17" t="str">
         <f>IF(S66="X","'"&amp;R66&amp;"',","")</f>
         <v/>
       </c>
       <c r="U66" s="17" t="str">
-        <f>"'"&amp;R66&amp;"',"</f>
-        <v>'review_score',</v>
+        <f t="shared" si="7"/>
+        <v>'order_id',</v>
       </c>
       <c r="V66" s="17"/>
       <c r="W66" s="17"/>
       <c r="X66" s="17"/>
     </row>
     <row r="67" spans="18:25" x14ac:dyDescent="0.4">
-      <c r="R67" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="S67" t="s">
-        <v>79</v>
+      <c r="R67" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="T67" s="17" t="str">
         <f>IF(S67="X","'"&amp;R67&amp;"',","")</f>
-        <v>'review_comment_title',</v>
+        <v/>
       </c>
       <c r="U67" s="17" t="str">
-        <f>"'"&amp;R67&amp;"',"</f>
-        <v>'review_comment_title',</v>
+        <f t="shared" si="7"/>
+        <v>'review_score',</v>
       </c>
       <c r="V67" s="17"/>
       <c r="W67" s="17"/>
       <c r="X67" s="17"/>
     </row>
     <row r="68" spans="18:25" x14ac:dyDescent="0.4">
-      <c r="R68" s="2" t="s">
-        <v>32</v>
+      <c r="R68" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="S68" t="s">
         <v>79</v>
       </c>
       <c r="T68" s="17" t="str">
         <f>IF(S68="X","'"&amp;R68&amp;"',","")</f>
-        <v>'review_comment_message',</v>
+        <v>'review_comment_title',</v>
       </c>
       <c r="U68" s="17" t="str">
-        <f>"'"&amp;R68&amp;"',"</f>
-        <v>'review_comment_message',</v>
+        <f t="shared" si="7"/>
+        <v>'review_comment_title',</v>
       </c>
       <c r="V68" s="17"/>
       <c r="W68" s="17"/>
       <c r="X68" s="17"/>
     </row>
     <row r="69" spans="18:25" x14ac:dyDescent="0.4">
-      <c r="R69" s="12" t="s">
-        <v>33</v>
+      <c r="R69" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="S69" t="s">
         <v>79</v>
       </c>
       <c r="T69" s="17" t="str">
-        <f t="shared" ref="T69:T70" si="4">IF(S69="X","'"&amp;R69&amp;"',","")</f>
-        <v>'review_creation_date',</v>
+        <f>IF(S69="X","'"&amp;R69&amp;"',","")</f>
+        <v>'review_comment_message',</v>
       </c>
       <c r="U69" s="17" t="str">
-        <f>"'"&amp;R69&amp;"',"</f>
-        <v>'review_creation_date',</v>
+        <f t="shared" si="7"/>
+        <v>'review_comment_message',</v>
       </c>
       <c r="V69" s="17"/>
       <c r="W69" s="17"/>
       <c r="X69" s="17"/>
-      <c r="Y69" s="22"/>
     </row>
     <row r="70" spans="18:25" x14ac:dyDescent="0.4">
       <c r="R70" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S70" t="s">
         <v>79</v>
       </c>
       <c r="T70" s="17" t="str">
-        <f t="shared" si="4"/>
-        <v>'review_answer_timestamp',</v>
+        <f t="shared" ref="T70:T71" si="8">IF(S70="X","'"&amp;R70&amp;"',","")</f>
+        <v>'review_creation_date',</v>
       </c>
       <c r="U70" s="17" t="str">
-        <f>"'"&amp;R70&amp;"',"</f>
-        <v>'review_answer_timestamp',</v>
+        <f t="shared" si="7"/>
+        <v>'review_creation_date',</v>
       </c>
       <c r="V70" s="17"/>
       <c r="W70" s="17"/>
       <c r="X70" s="17"/>
       <c r="Y70" s="22"/>
+    </row>
+    <row r="71" spans="18:25" x14ac:dyDescent="0.4">
+      <c r="R71" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="S71" t="s">
+        <v>79</v>
+      </c>
+      <c r="T71" s="17" t="str">
+        <f t="shared" si="8"/>
+        <v>'review_answer_timestamp',</v>
+      </c>
+      <c r="U71" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>'review_answer_timestamp',</v>
+      </c>
+      <c r="V71" s="17"/>
+      <c r="W71" s="17"/>
+      <c r="X71" s="17"/>
+      <c r="Y71" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
